--- a/期末專案/rawdata/靜宜大學.xlsx
+++ b/期末專案/rawdata/靜宜大學.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,76 @@
           <t>採計科目</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>數A</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>數B</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>英聽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>數甲</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>化學</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>公民</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +524,21 @@
           <t>國文(1.50)、英文(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +556,21 @@
           <t>國文(2.00)、英文(1.50)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +588,21 @@
           <t>國文(2.00)、英文(1.00)、歷史(1.50)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +620,21 @@
           <t>國文(1.00)、英文(1.00)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +652,21 @@
           <t>國文(2.00)、數B(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +684,21 @@
           <t>國文(1.75)、自然(2.00)、化學(2.00)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +716,21 @@
           <t>國文(1.50)、歷史(1.25)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -573,6 +748,21 @@
           <t>國文(2.00)、英文(1.50)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,6 +780,21 @@
           <t>國文(2.00)、英文(1.00)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,6 +812,21 @@
           <t>國文(1.00)、英文(1.00)、生物(2.00)</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -624,6 +844,21 @@
           <t>國文(2.00)、歷史(1.25)、地理(1.25)</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -641,6 +876,26 @@
           <t>國文(1.50)、英文(1.50)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -658,6 +913,21 @@
           <t>英文(1.00)、數B(1.00)、物理(2.00)</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -675,6 +945,21 @@
           <t>國文(2.00)、數B(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -692,6 +977,21 @@
           <t>國文(2.00)、數B(2.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -709,6 +1009,21 @@
           <t>國文(2.00)、英文(2.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +1041,26 @@
           <t>國文(1.50)、英文(1.50)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -743,6 +1078,21 @@
           <t>國文(2.00)、數B(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -760,6 +1110,21 @@
           <t>國文(2.00)、歷史(1.00)、地理(2.00)</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -777,6 +1142,21 @@
           <t>國文(2.00)、英文(1.50)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -794,6 +1174,21 @@
           <t>國文(2.00)、數B(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -811,6 +1206,21 @@
           <t>國文(2.00)、數B(2.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -828,6 +1238,21 @@
           <t>國文(2.00)、自然(2.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -845,6 +1270,21 @@
           <t>國文(2.00)、自然(2.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -862,6 +1302,21 @@
           <t>國文(2.00)、英文(1.00)、化學(2.00)</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -879,6 +1334,21 @@
           <t>國文(2.00)、英文(2.00)、歷史(1.75)</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -896,6 +1366,21 @@
           <t>國文(1.50)、英文(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -913,6 +1398,21 @@
           <t>國文(2.00)、英文(1.50)、地理(2.00)</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -930,6 +1430,21 @@
           <t>英文(2.00)、數B(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -947,6 +1462,21 @@
           <t>英文(1.00)、數B(1.50)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -964,6 +1494,21 @@
           <t>國文(2.00)、數B(2.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -981,6 +1526,21 @@
           <t>國文(2.00)、數B(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -998,6 +1558,21 @@
           <t>數B(1.00)、歷史(2.00)、地理(2.00)</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1015,6 +1590,21 @@
           <t>英文(1.00)、歷史(2.00)、地理(2.00)</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1030,6 +1620,21 @@
       <c r="C36" t="inlineStr">
         <is>
           <t>國文(1.00)、英文(2.00)、歷史(1.00)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
